--- a/test_results/charts.xlsx
+++ b/test_results/charts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windy\projects\GitHub\Project2-Stream-Compaction\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Windy\projects\upenn\Project2-Stream-Compaction\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Block size</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Radix sort (ms)</t>
-  </si>
-  <si>
-    <t>Thrust unstable sort (std::chrono)</t>
-  </si>
-  <si>
-    <t>Thrust stable sort (std::chrono)</t>
   </si>
   <si>
     <t>Thrust scan (ms) (CUDA event)</t>
@@ -124,6 +118,4602 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compact </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(ms) on log2 of input array length</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2367445609942158E-2"/>
+          <c:y val="0.13209383710757083"/>
+          <c:w val="0.91891461031058186"/>
+          <c:h val="0.66050472373123903"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input array length power of 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1C4-44AA-9BEC-0937F32673EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU compact (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.074300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155.40600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1C4-44AA-9BEC-0937F32673EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU scan compact  (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.624099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>422.524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E1C4-44AA-9BEC-0937F32673EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work-efficient compact (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.118368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.193408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96694400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.3034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.265900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E1C4-44AA-9BEC-0937F32673EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="274277167"/>
+        <c:axId val="274287983"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="274277167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274287983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="274287983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274277167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time (ms) for an 2^26 array on different block size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Scan(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>755.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>379.89699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212.542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133.11600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.80200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>114.575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114.593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AB4-40AC-B31B-F222C0E54891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work-efficient scan (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>76.571700000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.194200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.322400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.4925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.717199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.784100000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.3902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.308399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.2941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AB4-40AC-B31B-F222C0E54891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference CPU scan (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>134.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134.40799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7AB4-40AC-B31B-F222C0E54891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="178130271"/>
+        <c:axId val="178127775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="178130271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178127775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178127775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178130271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scan time (ms) on log2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of input array length</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23348886107860431"/>
+          <c:y val="3.9773773647779571E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU Scan (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.5625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159.92500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B38-47C5-AABE-A5215C1A9215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Scan (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7871999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2160000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2940199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.709399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.61000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B38-47C5-AABE-A5215C1A9215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work-efficient scan (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11078399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.180064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81852800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.337899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.451099999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B38-47C5-AABE-A5215C1A9215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thrust scan (ms) (CUDA event)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8191999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.166432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0064600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7282999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5B38-47C5-AABE-A5215C1A9215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="170700847"/>
+        <c:axId val="170695023"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="170700847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170695023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170695023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170700847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sorting time (ms) on log2 of input array length</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>std::sort (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.164899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>378.02499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1481.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15DD-4391-9C9A-9FFF3CBA91B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix sort (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.883328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4428799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.61686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.22199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>419.34500000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15DD-4391-9C9A-9FFF3CBA91B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="170588031"/>
+        <c:axId val="170591775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="170588031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170591775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170591775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170588031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2028824</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2024062</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>881061</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,21 +5015,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="A33:E35"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="C31" sqref="B26:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,7 +5186,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -778,12 +5368,6 @@
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -795,12 +5379,6 @@
       <c r="C27">
         <v>0.883328</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -812,12 +5390,6 @@
       <c r="C28">
         <v>1.4428799999999999</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -829,12 +5401,6 @@
       <c r="C29">
         <v>7.61686</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -846,12 +5412,6 @@
       <c r="C30">
         <v>105.22199999999999</v>
       </c>
-      <c r="D30">
-        <v>109.32899999999999</v>
-      </c>
-      <c r="E30">
-        <v>100.279</v>
-      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -863,16 +5423,10 @@
       <c r="C31">
         <v>419.34500000000003</v>
       </c>
-      <c r="D31">
-        <v>434.399</v>
-      </c>
-      <c r="E31">
-        <v>423.93299999999999</v>
-      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -880,14 +5434,8 @@
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>100</v>
       </c>
@@ -897,14 +5445,8 @@
       <c r="C34">
         <v>419.34500000000003</v>
       </c>
-      <c r="D34">
-        <v>434.399</v>
-      </c>
-      <c r="E34">
-        <v>423.93299999999999</v>
-      </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10000</v>
       </c>
@@ -913,15 +5455,10 @@
       </c>
       <c r="C35">
         <v>1023.97</v>
-      </c>
-      <c r="D35">
-        <v>580.81600000000003</v>
-      </c>
-      <c r="E35">
-        <v>587.524</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>